--- a/Data/EC/NIT-8060106210.xlsx
+++ b/Data/EC/NIT-8060106210.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0296B99-E57A-4B64-882E-A6BA23C61F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66849614-764C-4BD7-97A7-4169ABFF6BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8C4DFB75-01B5-4BD5-BAAD-629032A47CEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{461FF67C-61D0-4A0F-BF68-14982404D208}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,73 +71,73 @@
     <t>ANDRIUS RAFAEL FERNANDEZ DIMAS</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
     <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -551,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3756AD1D-B0C6-D56E-9B3F-6BAF467B1C76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A127A6D-AE58-4790-77CB-D88901EB0994}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DC7A12-3077-4468-A5BF-D356F3FFDDAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4CDA4D-3BB9-4451-A365-712E3EAF2B10}">
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>19791</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1586,7 +1586,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="24">
-        <v>19791</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="24">
         <v>781242</v>
